--- a/public/upload/test.xlsx
+++ b/public/upload/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,132 +43,634 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>正确答案：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、兄弟。原词：明月几时有？把酒问青天。不知天上宫阙，今夕是何年。我欲乘风归去，又恐琼楼玉宇，高处不胜寒。起舞弄清影，何似在人间？转朱阁，低绮户，照无眠。不应有恨，何事长向别时圆？人有悲欢离合，月有阴晴圆缺，此事古难全。但愿人长久，千里共婵娟。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>词前小序说：“丙辰中秋，欢饮达旦，大醉，作此篇，兼怀子由。”子由，是苏轼的弟弟苏辙的字。丙辰，是北宋神宗熙宁九年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;1076&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。当时苏轼在密州</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>今山东诸城</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF444444"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>做太守，中秋之夜他一边赏月一边饮酒，直到天亮，于是做了这首《水调歌头》。</t>
-    </r>
-  </si>
-  <si>
-    <t>aa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>111;222;333;444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa;sss;ddd;fff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛主席是哪一年出生哪一年逝世的</t>
+  </si>
+  <si>
+    <t>1893~1967;1896~1976;1896~1967;1893~1976</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓小平的故乡在哪</t>
+  </si>
+  <si>
+    <t>北京;成都;重庆;广安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国第一民办普通本科高校是谁办的</t>
+  </si>
+  <si>
+    <t>杨雪梅;杨宝成;胡大白;孔令云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易中天毕业于</t>
+  </si>
+  <si>
+    <t>广西大学;武汉大学;北京大学;西南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次对斯大林体制进行改革的是谁</t>
+  </si>
+  <si>
+    <t>列宁;赫鲁晓夫;戈尔巴乔夫;勃列日涅夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下人物中，谁被称为王佐之才</t>
+  </si>
+  <si>
+    <t>周瑜;诸葛亮;荀彧;郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操阵营中，谁识破了庞统的</t>
+  </si>
+  <si>
+    <t>“江东四杰”是指</t>
+  </si>
+  <si>
+    <t>梁山排名25位的是</t>
+  </si>
+  <si>
+    <t>李俊;雷横;阮小二;张横</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征方腊谁不是李逵的副手</t>
+  </si>
+  <si>
+    <t>鲍旭;李衮;邓飞;项冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确答案：B、兄弟。原词：明月几时有？把酒问青天。不知天上宫阙，今夕是何年。我欲乘风归去，又恐琼楼玉宇，高处不胜寒。起舞弄清影，何似在人间？转朱阁，低绮户，照无眠。不应有恨，何事长向别时圆？人有悲欢离合，月有阴晴圆缺，此事古难全。但愿人长久，千里共婵娟。/词前小序说：“丙辰中秋，欢饮达旦，大醉，作此篇，兼怀子由。”子由，是苏轼的弟弟苏辙的字。丙辰，是北宋神宗熙宁九年&lt;1076&gt;。当时苏轼在密州&lt;今山东诸城&gt;做太守，中秋之夜他一边赏月一边饮酒，直到天亮，于是做了这首《水调歌头》。</t>
+  </si>
+  <si>
+    <t>荀攸;荀彧;徐庶;程昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜、鲁肃、吕蒙、陆逊;周瑜、张昭、鲁肃、张继;鲁肃、黄盖、程普、甘宁;周瑜、张昭、甘宁、吕蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产经营单位必须执行依法制定的保障安全生产的（ ）标准</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>企业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合同</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqqqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaaaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产经营单位应当具备（ ）安全生产条件</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不属于《安全生产法》明确赋予从业人员的权利有（ ）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建议权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>批评权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拒绝权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>报告权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服从管理权</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加强安全生产立法，制定《安全生产法》的必要性，主要体现在（ ）。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它是依法加强监督管理，保证各级安全监督管理部门依法行政的需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它是依法规范安全生产的需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它是制裁安全生产违法行为，保护人民群众生命和财产安全的需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它是建立健全我国安全生产法律体系的需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它是依法规范生产经营单位的安全生产工作的需要</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssssssss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dddddddddddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eeeeeeeeeeeee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fffffffffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>安全生产法和有关法律规定的;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>国家标准或者行业标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行政法规规定的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地方标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地方政府规定的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《安全生产法》规定，煤矿企业的主要负责人对本单位安全生产工作全面负责，主要职责有( )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建立、健全本单位安全生产责任制;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织制定本单位安全生产规章制度和操作规程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组织制定并实施本单位安全生产教育和培训计划</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及时、如实报告生产安全事故</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及时为本单位职工购买工伤保险</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《安全生产法》明确赋予从业人员的权利有（ ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>知情权;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赔偿请求权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检举权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安全保障权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>指挥权</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,10 +702,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF444444"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,9 +743,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,81 +1052,529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="105.625" customWidth="1"/>
+    <col min="4" max="4" width="48.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1234</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/upload/test.xlsx
+++ b/public/upload/test.xlsx
@@ -334,95 +334,6 @@
     <t>加强安全生产立法，制定《安全生产法》的必要性，主要体现在（ ）。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>它是依法加强监督管理，保证各级安全监督管理部门依法行政的需要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>它是依法规范安全生产的需要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>它是制裁安全生产违法行为，保护人民群众生命和财产安全的需要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>它是建立健全我国安全生产法律体系的需要</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>它是依法规范生产经营单位的安全生产工作的需要</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1;2;3;4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,6 +581,88 @@
         <charset val="134"/>
       </rPr>
       <t>指挥权</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>保证监督管理部门依法行政</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依法规范安全生产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制裁安全生产违法行为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建立健全安全生产法律体系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依法规范生产经营单位的安全生产工作</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1055,13 +1048,15 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="105.625" customWidth="1"/>
-    <col min="4" max="4" width="48.875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
@@ -1355,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -1379,13 +1374,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1397,16 +1392,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1424,10 +1419,10 @@
         <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1441,14 +1436,14 @@
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
